--- a/templates/DEVQAFF/LUI-Work Order complete Flow.xlsx
+++ b/templates/DEVQAFF/LUI-Work Order complete Flow.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\DEVQAFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\DEVQAFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A197B14-F2C6-4270-8A71-AADC67361A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540BDF16-60FE-4BBC-8B28-EA0F1F83B51C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
-    <sheet name="Add Component" sheetId="8" r:id="rId2"/>
-    <sheet name="Add Operation" sheetId="7" r:id="rId3"/>
-    <sheet name="Time and Qty Booking" sheetId="2" r:id="rId4"/>
-    <sheet name="WO receipt" sheetId="3" r:id="rId5"/>
-    <sheet name="WO Receipt reversal" sheetId="4" r:id="rId6"/>
-    <sheet name="Time and Qty Booking Reversal" sheetId="5" r:id="rId7"/>
-    <sheet name="Delete Operation and Components" sheetId="6" r:id="rId8"/>
+    <sheet name="WO Issue" sheetId="9" r:id="rId2"/>
+    <sheet name="Time and Qty Booking" sheetId="2" r:id="rId3"/>
+    <sheet name="WO receipt" sheetId="3" r:id="rId4"/>
+    <sheet name="WO Receipt reversal" sheetId="4" r:id="rId5"/>
+    <sheet name="Time and Qty Booking Reversal" sheetId="5" r:id="rId6"/>
+    <sheet name="Delete Operation and Components" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Site</t>
   </si>
@@ -52,9 +51,6 @@
     <t>Project Charge Code</t>
   </si>
   <si>
-    <t>Pro-Lot Track (Lot Track)</t>
-  </si>
-  <si>
     <t>Booking Type</t>
   </si>
   <si>
@@ -112,18 +108,9 @@
     <t>10 (Op 10) (Qty Avail:5)</t>
   </si>
   <si>
-    <t>20 (Op 20) (Qty Avail:5)</t>
-  </si>
-  <si>
-    <t>20 (Op 20) (Qty Avail:2)</t>
-  </si>
-  <si>
     <t>WO Receipt Traveler</t>
   </si>
   <si>
-    <t>8/16/2021</t>
-  </si>
-  <si>
     <t>Inventory Location ID</t>
   </si>
   <si>
@@ -139,12 +126,6 @@
     <t>Location Comments</t>
   </si>
   <si>
-    <t>WORCPT</t>
-  </si>
-  <si>
-    <t>OH (On Hand Loc)</t>
-  </si>
-  <si>
     <t>Test comm</t>
   </si>
   <si>
@@ -163,12 +144,6 @@
     <t>Txn Comment</t>
   </si>
   <si>
-    <t>Reverse 3</t>
-  </si>
-  <si>
-    <t>Reverse 2</t>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
@@ -184,107 +159,53 @@
     <t>Component Item</t>
   </si>
   <si>
-    <t>Component Qty</t>
-  </si>
-  <si>
-    <t>Scrap Factor</t>
-  </si>
-  <si>
-    <t>Setup Qty</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Enter Qty Per Flag</t>
-  </si>
-  <si>
-    <t>Enter Component Qty Flag</t>
-  </si>
-  <si>
-    <t>Fixed Component Qty Flag</t>
-  </si>
-  <si>
-    <t>Pro-serial Track (Serial Track)</t>
-  </si>
-  <si>
-    <t>Operation Type</t>
-  </si>
-  <si>
-    <t>Operation Number</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Process</t>
-  </si>
-  <si>
-    <t>Work Center</t>
-  </si>
-  <si>
-    <t>Assigned To</t>
-  </si>
-  <si>
-    <t>Setup Type</t>
-  </si>
-  <si>
-    <t>Setup Labor Grade</t>
-  </si>
-  <si>
-    <t>Setup Standard Hours</t>
-  </si>
-  <si>
-    <t>Run Type</t>
-  </si>
-  <si>
-    <t>Run Labor Grade</t>
-  </si>
-  <si>
-    <t>Run Standard Hours</t>
-  </si>
-  <si>
-    <t>Machine Type</t>
-  </si>
-  <si>
-    <t>Machine Number</t>
-  </si>
-  <si>
-    <t>Standard Machine Hours</t>
-  </si>
-  <si>
-    <t>Concurrent Seq</t>
-  </si>
-  <si>
     <t>Reverse All</t>
   </si>
   <si>
-    <t>8/16/2026</t>
-  </si>
-  <si>
-    <t>Subcontract Lead Time</t>
-  </si>
-  <si>
-    <t>Allow Accept Flag?</t>
-  </si>
-  <si>
-    <t>Auto-Lot track (Lot track)</t>
-  </si>
-  <si>
     <t>US1 (US100 Main Site)</t>
   </si>
   <si>
     <t>Auto-Serial track (Serial track)</t>
+  </si>
+  <si>
+    <t>Auto-Child1</t>
+  </si>
+  <si>
+    <t>Auto-Child2</t>
+  </si>
+  <si>
+    <t>Auto-Child4</t>
+  </si>
+  <si>
+    <t>Location ID</t>
+  </si>
+  <si>
+    <t>Location Number</t>
+  </si>
+  <si>
+    <t>Lot Number</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Pro-1</t>
+  </si>
+  <si>
+    <t>LT_1</t>
+  </si>
+  <si>
+    <t>OH (On Hand)</t>
+  </si>
+  <si>
+    <t>LUI-automation (No track)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +224,12 @@
       <sz val="7"/>
       <color rgb="FF4A4A56"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF181818"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -330,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,35 +589,18 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>5</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -701,147 +611,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106A5DC5-11A9-463E-B813-87CC78B959DE}">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A6ED0A-51E5-44CA-B80D-6C375C937A13}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D4" t="s">
         <v>52</v>
-      </c>
-      <c r="I1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F645892-6DEC-48BA-AEFF-9DA397370813}">
-  <dimension ref="A1:S1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -850,13 +686,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8AA5-AAA5-4969-B3C7-F881B91DE17C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,262 +718,75 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>18</v>
+      </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="b">
+        <v>24</v>
+      </c>
+      <c r="I2" t="b">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
       <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
         <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1147,12 +796,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B46C-917D-4769-9EED-CC4369AB85E4}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,118 +823,51 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
-        <v>75</v>
-      </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1293,12 +875,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4834583-3C97-4830-AB3E-726B04898CE6}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1314,46 +896,24 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1361,12 +921,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64F68B-8B51-425D-AD6F-D9D782FBD866}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,77 +940,21 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1458,12 +962,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EC26A-E704-4A02-9DEB-2216FF4892C8}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD11"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1478,31 +982,20 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
         <v>1</v>
       </c>
     </row>
